--- a/excel file.xlsx
+++ b/excel file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clara\Documents\UU\Multilevel &amp; psychometrics\Lab\Assignment 2\Assignment-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5D0F26-FF1F-44CE-8B34-B08E5EE947C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AF3C32-B8F6-4BF4-9290-805DB5C531DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
         <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
 Commentaire :
-    should I put the deviance btween m4b and m2? 11,641 and df = 1</t>
+    comparison with the last best model (m2)</t>
       </text>
     </comment>
     <comment ref="T23" authorId="1" shapeId="0" xr:uid="{E2B8C2AC-A797-4237-B1EE-6D5E16A35B8E}">
@@ -250,24 +250,23 @@
     <t>6,8778**</t>
   </si>
   <si>
-    <t>7,1788.</t>
-  </si>
-  <si>
     <t>26,561***</t>
   </si>
   <si>
     <t>11,642**</t>
+  </si>
+  <si>
+    <t>11,641***</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,14 +297,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,12 +314,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -454,7 +441,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -480,8 +466,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -493,7 +477,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -853,7 +836,7 @@
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="L23" dT="2022-03-06T15:53:20.23" personId="{7E3CEF11-3571-4698-914B-114A727C1383}" id="{CC265163-381D-4B81-97F4-4DE85279FDEE}">
-    <text>should I put the deviance btween m4b and m2? 11,641 and df = 1</text>
+    <text>comparison with the last best model (m2)</text>
   </threadedComment>
   <threadedComment ref="T23" dT="2022-03-06T14:53:23.91" personId="{7E3CEF11-3571-4698-914B-114A727C1383}" id="{E2B8C2AC-A797-4237-B1EE-6D5E16A35B8E}">
     <text>comparison with the last best model (m4b)</text>
@@ -868,9 +851,9 @@
   </sheetPr>
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1093,7 +1076,7 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="19">
         <v>1.819</v>
       </c>
       <c r="C6" s="19">
@@ -1264,7 +1247,7 @@
       </c>
       <c r="T9" s="50"/>
       <c r="U9" s="50"/>
-      <c r="V9" s="62"/>
+      <c r="V9" s="61"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
@@ -1319,20 +1302,20 @@
       </c>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="85"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="82"/>
       <c r="L11" s="38"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="85"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
       <c r="P11" s="38"/>
-      <c r="Q11" s="86"/>
+      <c r="Q11" s="83"/>
       <c r="R11" s="16">
         <v>-4.7550000000000002E-2</v>
       </c>
@@ -1366,37 +1349,37 @@
       <c r="O12" s="57"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="58"/>
-      <c r="R12" s="95">
+      <c r="R12" s="91">
         <v>1.1990000000000001E-2</v>
       </c>
-      <c r="S12" s="95">
+      <c r="S12" s="91">
         <v>2.317E-2</v>
       </c>
-      <c r="T12" s="88"/>
-      <c r="U12" s="88"/>
+      <c r="T12" s="85"/>
+      <c r="U12" s="85"/>
     </row>
     <row r="13" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="85"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="82"/>
       <c r="L13" s="38"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
       <c r="P13" s="38"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="75"/>
-      <c r="S13" s="75"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="74"/>
       <c r="T13" s="38"/>
       <c r="U13" s="38"/>
     </row>
@@ -1404,6 +1387,9 @@
       <c r="A14" t="s">
         <v>48</v>
       </c>
+      <c r="B14" s="12">
+        <v>3.32</v>
+      </c>
       <c r="D14" s="31">
         <v>1.7410000000000001</v>
       </c>
@@ -1422,28 +1408,28 @@
       <c r="I14" s="52">
         <v>1.3009999999999999</v>
       </c>
-      <c r="J14" s="59">
+      <c r="J14" s="18">
         <v>1.6890000000000001</v>
       </c>
       <c r="K14" s="18">
         <v>1.3</v>
       </c>
-      <c r="L14" s="90">
+      <c r="L14" s="59">
         <v>1.6890000000000001</v>
       </c>
-      <c r="M14" s="60">
+      <c r="M14" s="59">
         <v>1.3</v>
       </c>
       <c r="N14" s="18">
-        <v>1.5289699999999999</v>
+        <v>1.52895</v>
       </c>
       <c r="O14" s="18">
         <v>1.2364999999999999</v>
       </c>
-      <c r="P14" s="60">
-        <v>1.5222599999999999</v>
-      </c>
-      <c r="Q14" s="60">
+      <c r="P14" s="59">
+        <v>1.52234</v>
+      </c>
+      <c r="Q14" s="59">
         <v>1.2338</v>
       </c>
       <c r="R14" s="18">
@@ -1452,10 +1438,10 @@
       <c r="S14" s="18">
         <v>1.2364999999999999</v>
       </c>
-      <c r="T14" s="60">
+      <c r="T14" s="59">
         <v>1.5289299999999999</v>
       </c>
-      <c r="U14" s="60">
+      <c r="U14" s="59">
         <v>1.2364999999999999</v>
       </c>
     </row>
@@ -1481,28 +1467,28 @@
       <c r="I15" s="52">
         <v>1.2549999999999999</v>
       </c>
-      <c r="J15" s="59">
+      <c r="J15" s="18">
         <v>1.488</v>
       </c>
       <c r="K15" s="18">
         <v>1.22</v>
       </c>
-      <c r="L15" s="90">
+      <c r="L15" s="59">
         <v>1.488</v>
       </c>
-      <c r="M15" s="60">
+      <c r="M15" s="59">
         <v>1.22</v>
       </c>
       <c r="N15" s="18">
-        <v>0.79901999999999995</v>
+        <v>0.94854000000000005</v>
       </c>
       <c r="O15" s="18">
-        <v>0.89390000000000003</v>
-      </c>
-      <c r="P15" s="60">
-        <v>0.97931999999999997</v>
-      </c>
-      <c r="Q15" s="60">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="P15" s="59">
+        <v>0.91474</v>
+      </c>
+      <c r="Q15" s="59">
         <v>0.95640000000000003</v>
       </c>
       <c r="R15" s="18">
@@ -1511,10 +1497,10 @@
       <c r="S15" s="18">
         <v>0.96889999999999998</v>
       </c>
-      <c r="T15" s="60">
+      <c r="T15" s="59">
         <v>0.94006000000000001</v>
       </c>
-      <c r="U15" s="60">
+      <c r="U15" s="59">
         <v>0.96960000000000002</v>
       </c>
     </row>
@@ -1522,29 +1508,29 @@
       <c r="A16" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="61"/>
+      <c r="H16" s="60"/>
       <c r="N16" s="18">
-        <v>9.6269999999999994E-2</v>
+        <v>9.6280000000000004E-2</v>
       </c>
       <c r="O16" s="18">
         <v>0.31030000000000002</v>
       </c>
-      <c r="P16" s="60">
+      <c r="P16" s="59">
         <v>8.0479999999999996E-2</v>
       </c>
-      <c r="Q16" s="60">
+      <c r="Q16" s="59">
         <v>0.28370000000000001</v>
       </c>
-      <c r="R16" s="96">
+      <c r="R16" s="92">
         <v>8.3489999999999995E-2</v>
       </c>
       <c r="S16" s="18">
         <v>0.28889999999999999</v>
       </c>
-      <c r="T16" s="62">
+      <c r="T16" s="61">
         <v>8.3970000000000003E-2</v>
       </c>
-      <c r="U16" s="60">
+      <c r="U16" s="59">
         <v>0.2898</v>
       </c>
     </row>
@@ -1552,39 +1538,39 @@
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="61"/>
+      <c r="H17" s="60"/>
       <c r="N17" s="18">
-        <v>0.1</v>
+        <v>0.41</v>
       </c>
       <c r="O17" s="18"/>
-      <c r="P17" s="60">
+      <c r="P17" s="59">
         <v>0.51</v>
       </c>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="96">
+      <c r="Q17" s="59"/>
+      <c r="R17" s="92">
         <v>0.48</v>
       </c>
       <c r="S17" s="18"/>
-      <c r="T17" s="62">
-        <v>0.2</v>
-      </c>
-      <c r="U17" s="60"/>
+      <c r="T17">
+        <v>0.47</v>
+      </c>
+      <c r="U17" s="59"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="61"/>
+      <c r="H18" s="60"/>
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
-      <c r="P18" s="60">
+      <c r="P18" s="59">
         <v>1.5469999999999999E-2</v>
       </c>
-      <c r="Q18" s="41">
+      <c r="Q18" s="59">
         <v>0.1244</v>
       </c>
-      <c r="S18" s="63"/>
-      <c r="U18" s="64"/>
+      <c r="S18" s="62"/>
+      <c r="U18" s="63"/>
     </row>
     <row r="19" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
@@ -1594,20 +1580,18 @@
       <c r="C19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="65"/>
+      <c r="H19" s="64"/>
       <c r="I19" s="42"/>
       <c r="J19" s="43"/>
       <c r="K19" s="43"/>
       <c r="L19" s="44"/>
       <c r="M19" s="44"/>
-      <c r="N19" s="78"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="80">
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="44">
         <v>0.02</v>
       </c>
-      <c r="Q19" s="80">
-        <v>-0.02</v>
-      </c>
+      <c r="Q19" s="44"/>
       <c r="R19" s="43"/>
       <c r="S19" s="43"/>
       <c r="T19" s="44"/>
@@ -1632,10 +1616,10 @@
       <c r="G20" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="67" t="s">
+      <c r="H20" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="68" t="s">
+      <c r="I20" s="67" t="s">
         <v>18</v>
       </c>
       <c r="J20" s="21" t="s">
@@ -1650,7 +1634,7 @@
       <c r="M20" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="N20" s="93" t="s">
+      <c r="N20" s="89" t="s">
         <v>17</v>
       </c>
       <c r="O20" s="21" t="s">
@@ -1679,7 +1663,10 @@
       <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="89">
+      <c r="C21" s="12">
+        <v>1</v>
+      </c>
+      <c r="D21" s="86">
         <v>-1668.8</v>
       </c>
       <c r="E21" s="10">
@@ -1691,7 +1678,7 @@
       <c r="G21" s="23">
         <v>4</v>
       </c>
-      <c r="H21" s="61">
+      <c r="H21" s="60">
         <v>-1658.6</v>
       </c>
       <c r="I21" s="40">
@@ -1703,7 +1690,7 @@
       <c r="K21" s="23">
         <v>6</v>
       </c>
-      <c r="L21" s="69">
+      <c r="L21" s="68">
         <v>-1652.9</v>
       </c>
       <c r="M21" s="41">
@@ -1715,7 +1702,7 @@
       <c r="O21" s="23">
         <v>7</v>
       </c>
-      <c r="P21" s="69">
+      <c r="P21" s="68">
         <v>-1639.5</v>
       </c>
       <c r="Q21" s="41">
@@ -1746,19 +1733,19 @@
         <v>3317.5</v>
       </c>
       <c r="G22" s="23"/>
-      <c r="H22" s="61">
+      <c r="H22" s="60">
         <v>3317.2</v>
       </c>
       <c r="J22" s="28">
         <v>3305.8</v>
       </c>
-      <c r="L22" s="69">
+      <c r="L22" s="68">
         <v>3305.8</v>
       </c>
       <c r="N22" s="28">
         <v>3279.3</v>
       </c>
-      <c r="P22" s="69">
+      <c r="P22" s="68">
         <v>3279</v>
       </c>
       <c r="R22" s="23">
@@ -1785,44 +1772,43 @@
         <f>G21-E21</f>
         <v>1</v>
       </c>
-      <c r="H23" s="61">
-        <f>F22-H22</f>
-        <v>0.3000000000001819</v>
+      <c r="H23" s="52">
+        <v>0.28999999999999998</v>
       </c>
       <c r="I23" s="40">
         <v>1</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K23" s="23">
         <v>2</v>
       </c>
-      <c r="L23" s="79">
-        <v>4.0000000000000002E-4</v>
+      <c r="L23" s="59" t="s">
+        <v>65</v>
       </c>
       <c r="M23" s="41">
         <v>1</v>
       </c>
       <c r="N23" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O23" s="23">
         <v>2</v>
       </c>
-      <c r="P23" s="69">
+      <c r="P23" s="68">
         <v>0.26090000000000002</v>
       </c>
       <c r="Q23" s="41">
         <v>4</v>
       </c>
-      <c r="R23" s="28" t="s">
-        <v>63</v>
+      <c r="R23" s="18">
+        <v>7.1787999999999998</v>
       </c>
       <c r="S23" s="23">
         <v>3</v>
       </c>
-      <c r="T23" s="69" t="s">
+      <c r="T23" s="68" t="s">
         <v>62</v>
       </c>
       <c r="U23" s="41">
@@ -1844,33 +1830,33 @@
         <v>3325.5</v>
       </c>
       <c r="G24" s="13"/>
-      <c r="H24" s="65">
+      <c r="H24" s="64">
         <f>(2*I21)+H22</f>
         <v>3327.2</v>
       </c>
       <c r="I24" s="42"/>
-      <c r="J24" s="70">
+      <c r="J24" s="69">
         <v>3317.8</v>
       </c>
       <c r="K24" s="43"/>
-      <c r="L24" s="91">
+      <c r="L24" s="87">
         <v>3315.8</v>
       </c>
       <c r="M24" s="44"/>
-      <c r="N24" s="70">
+      <c r="N24" s="69">
         <v>3293.3</v>
       </c>
       <c r="O24" s="43"/>
-      <c r="P24" s="91">
+      <c r="P24" s="87">
         <v>3301</v>
       </c>
       <c r="Q24" s="44"/>
-      <c r="R24" s="97">
+      <c r="R24" s="93">
         <f>(2*S21)+R22</f>
         <v>3292.1</v>
       </c>
       <c r="S24" s="43"/>
-      <c r="T24" s="71">
+      <c r="T24" s="70">
         <f>(2*U21)+T22</f>
         <v>3288.4</v>
       </c>
@@ -1885,19 +1871,19 @@
       <c r="D25" s="35"/>
       <c r="F25" s="36"/>
       <c r="G25" s="34"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="92"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="88"/>
       <c r="M25" s="38"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="92"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="88"/>
       <c r="Q25" s="38"/>
-      <c r="R25" s="98"/>
-      <c r="S25" s="75"/>
-      <c r="T25" s="76"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="75"/>
       <c r="U25" s="38"/>
     </row>
     <row r="26" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -1912,19 +1898,19 @@
       </c>
       <c r="F26" s="36"/>
       <c r="G26" s="34"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="92"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="88"/>
       <c r="M26" s="38"/>
-      <c r="N26" s="74"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="92"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="88"/>
       <c r="Q26" s="38"/>
-      <c r="R26" s="98"/>
-      <c r="S26" s="75"/>
-      <c r="T26" s="76"/>
+      <c r="R26" s="94"/>
+      <c r="S26" s="74"/>
+      <c r="T26" s="75"/>
       <c r="U26" s="38"/>
     </row>
     <row r="27" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -1937,7 +1923,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
-      <c r="H27" s="77"/>
+      <c r="H27" s="76"/>
       <c r="I27" s="46"/>
       <c r="J27" s="47"/>
       <c r="K27" s="47"/>
@@ -1945,7 +1931,7 @@
       <c r="M27" s="48"/>
       <c r="N27" s="47"/>
       <c r="O27" s="47"/>
-      <c r="P27" s="94"/>
+      <c r="P27" s="90"/>
       <c r="Q27" s="48"/>
       <c r="R27" s="47"/>
       <c r="S27" s="47"/>
@@ -1966,17 +1952,17 @@
         <v>0</v>
       </c>
       <c r="K28" s="18"/>
-      <c r="L28" s="60">
+      <c r="L28" s="59">
         <f>(H14-L14)/J14</f>
         <v>2.3682652457075212E-3</v>
       </c>
-      <c r="M28" s="60"/>
+      <c r="M28" s="59"/>
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="60"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
       <c r="R28" s="18"/>
-      <c r="T28" s="60"/>
+      <c r="T28" s="59"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
@@ -1992,17 +1978,17 @@
         <v>6.59898477157361E-2</v>
       </c>
       <c r="K29" s="18"/>
-      <c r="L29" s="60">
+      <c r="L29" s="59">
         <f>(H15-L15)/J15</f>
         <v>5.9139784946236611E-2</v>
       </c>
-      <c r="M29" s="60"/>
+      <c r="M29" s="59"/>
       <c r="N29" s="18"/>
       <c r="O29" s="18"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="59"/>
       <c r="R29" s="18"/>
-      <c r="T29" s="60"/>
+      <c r="T29" s="59"/>
     </row>
     <row r="30" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
@@ -2014,20 +2000,20 @@
       <c r="G30" s="13"/>
       <c r="H30" s="55"/>
       <c r="I30" s="55"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="66"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="65"/>
+      <c r="Q30" s="65"/>
       <c r="R30" s="18">
         <f>(P16-R16)/P16</f>
         <v>-3.7400596421471158E-2</v>
       </c>
       <c r="S30" s="43"/>
-      <c r="T30" s="60">
+      <c r="T30" s="59">
         <f>(R16-T16)/R16</f>
         <v>-5.749191519942607E-3</v>
       </c>
